--- a/Outputs/Table 4.xlsx
+++ b/Outputs/Table 4.xlsx
@@ -108,7 +108,7 @@
         <v>-0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.8408606519233997E9</v>
+        <v>1.8448494856723125E9</v>
       </c>
     </row>
     <row r="4">
@@ -119,7 +119,7 @@
         <v>-0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.8480355082849066E9</v>
+        <v>1.85601319336508E9</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +130,7 @@
         <v>-0.16</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8566453746679432E9</v>
+        <v>1.8694097045544364E9</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Table 4.xlsx
+++ b/Outputs/Table 4.xlsx
@@ -97,7 +97,7 @@
         <v>-0.025</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8336858249172356E9</v>
+        <v>3.559483367572565E9</v>
       </c>
     </row>
     <row r="3">
@@ -108,7 +108,7 @@
         <v>-0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.8448494856723125E9</v>
+        <v>3.5650652038173027E9</v>
       </c>
     </row>
     <row r="4">
@@ -119,7 +119,7 @@
         <v>-0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.85601319336508E9</v>
+        <v>3.576228911510071E9</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +130,7 @@
         <v>-0.16</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8694097045544364E9</v>
+        <v>3.5896254226994276E9</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Table 4.xlsx
+++ b/Outputs/Table 4.xlsx
@@ -97,7 +97,7 @@
         <v>-0.025</v>
       </c>
       <c r="C2" t="n">
-        <v>3.559483367572565E9</v>
+        <v>3.5596765455986443E9</v>
       </c>
     </row>
     <row r="3">
@@ -108,7 +108,7 @@
         <v>-0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3.5650652038173027E9</v>
+        <v>3.565451560217553E9</v>
       </c>
     </row>
     <row r="4">
@@ -119,7 +119,7 @@
         <v>-0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>3.576228911510071E9</v>
+        <v>3.577001625702943E9</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +130,7 @@
         <v>-0.16</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5896254226994276E9</v>
+        <v>3.5908617680813828E9</v>
       </c>
     </row>
   </sheetData>
